--- a/data/transformed_data.xlsx
+++ b/data/transformed_data.xlsx
@@ -515,7 +515,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
         <v>42</v>
@@ -527,13 +527,13 @@
         <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.9770609318996425</v>
+        <v>-1.492114695340502</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1757966344432509</v>
+        <v>-0.5420694593626935</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6447697250981795</v>
+        <v>0.2988218493395215</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -644,7 +644,7 @@
         <v>5776</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>12</v>
@@ -659,13 +659,13 @@
         <v>60</v>
       </c>
       <c r="I5" t="n">
-        <v>2.891039426523297</v>
+        <v>2.908960573476702</v>
       </c>
       <c r="J5" t="n">
-        <v>-3.759040458288578</v>
+        <v>-3.248120300751879</v>
       </c>
       <c r="K5" t="n">
-        <v>1.493038200642628</v>
+        <v>2.272045697965013</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>2500</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -703,13 +703,13 @@
         <v>60</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9559139784946242</v>
+        <v>0.9738351254480289</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.663802363050485</v>
+        <v>-2.152882205513786</v>
       </c>
       <c r="K6" t="n">
-        <v>1.351303106033559</v>
+        <v>2.130310603355944</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>

--- a/data/transformed_data.xlsx
+++ b/data/transformed_data.xlsx
@@ -1,84 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>age^2</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>education</t>
-  </si>
-  <si>
-    <t>sdmt</t>
-  </si>
-  <si>
-    <t>bvmt</t>
-  </si>
-  <si>
-    <t>cvlt</t>
-  </si>
-  <si>
-    <t>sdmt_z</t>
-  </si>
-  <si>
-    <t>bvmt_z</t>
-  </si>
-  <si>
-    <t>cvlt_z</t>
-  </si>
-  <si>
-    <t>sdmt_imp</t>
-  </si>
-  <si>
-    <t>bvmt_imp</t>
-  </si>
-  <si>
-    <t>cvlt_imp</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -93,35 +46,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,275 +421,307 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>age^2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>education</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>sdmt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>bvmt</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>cvlt</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>sdmt_z</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>bvmt_z</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>cvlt_z</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>sdmt_imp</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>bvmt_imp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>cvlt_imp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>52</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2704</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n">
+        <v>42</v>
+      </c>
+      <c r="G2" t="n">
+        <v>25</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.9770609318996425</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.1757966344432509</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.6447697250981795</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>19</v>
+      </c>
+      <c r="C3" t="n">
+        <v>361</v>
+      </c>
+      <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E3" t="n">
+        <v>21</v>
+      </c>
+      <c r="F3" t="n">
+        <v>60</v>
+      </c>
+      <c r="G3" t="n">
+        <v>20</v>
+      </c>
+      <c r="H3" t="n">
+        <v>30</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-2.45089605734767</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-3.232008592910849</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-2.078900392716887</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>32</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>17</v>
+      </c>
+      <c r="F4" t="n">
+        <v>85</v>
+      </c>
+      <c r="G4" t="n">
+        <v>35</v>
+      </c>
+      <c r="H4" t="n">
+        <v>70</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.974551971326164</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.135338345864661</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.546590503391646</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="n">
+        <v>76</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5776</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F5" t="n">
+        <v>75</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" t="n">
+        <v>60</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.891039426523297</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-3.759040458288578</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.493038200642628</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>52</v>
-      </c>
-      <c r="C2">
-        <v>2704</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>42</v>
-      </c>
-      <c r="G2">
-        <v>25</v>
-      </c>
-      <c r="H2">
+      <c r="B6" t="n">
         <v>50</v>
       </c>
-      <c r="I2">
-        <v>-0.9770609318996425</v>
-      </c>
-      <c r="J2">
-        <v>-0.1757966344432509</v>
-      </c>
-      <c r="K2">
-        <v>0.6447697250981795</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>361</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>21</v>
-      </c>
-      <c r="F3">
+      <c r="C6" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" t="n">
+        <v>65</v>
+      </c>
+      <c r="G6" t="n">
+        <v>15</v>
+      </c>
+      <c r="H6" t="n">
         <v>60</v>
       </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>30</v>
-      </c>
-      <c r="I3">
-        <v>-2.45089605734767</v>
-      </c>
-      <c r="J3">
-        <v>-3.232008592910849</v>
-      </c>
-      <c r="K3">
-        <v>-2.078900392716887</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>32</v>
-      </c>
-      <c r="C4">
-        <v>1024</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>17</v>
-      </c>
-      <c r="F4">
-        <v>85</v>
-      </c>
-      <c r="G4">
-        <v>35</v>
-      </c>
-      <c r="H4">
-        <v>70</v>
-      </c>
-      <c r="I4">
-        <v>1.974551971326164</v>
-      </c>
-      <c r="J4">
-        <v>1.135338345864661</v>
-      </c>
-      <c r="K4">
-        <v>2.546590503391646</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>76</v>
-      </c>
-      <c r="C5">
-        <v>5776</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>75</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>60</v>
-      </c>
-      <c r="I5">
-        <v>2.891039426523297</v>
-      </c>
-      <c r="J5">
-        <v>-3.759040458288578</v>
-      </c>
-      <c r="K5">
-        <v>1.493038200642628</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>50</v>
-      </c>
-      <c r="C6">
-        <v>2500</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>65</v>
-      </c>
-      <c r="G6">
-        <v>15</v>
-      </c>
-      <c r="H6">
-        <v>60</v>
-      </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>0.9559139784946242</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>-2.663802363050485</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>1.351303106033559</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/data/transformed_data.xlsx
+++ b/data/transformed_data.xlsx
@@ -533,7 +533,7 @@
         <v>-0.1757966344432509</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6447697250981795</v>
+        <v>-0.9132452695465898</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>-3.232008592910849</v>
       </c>
       <c r="K3" t="n">
-        <v>-2.078900392716887</v>
+        <v>-5.194930382006427</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         <v>1.135338345864661</v>
       </c>
       <c r="K4" t="n">
-        <v>2.546590503391646</v>
+        <v>-0.5694394858978932</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>-3.759040458288578</v>
       </c>
       <c r="K5" t="n">
-        <v>1.493038200642628</v>
+        <v>-0.0649767940021416</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>-2.663802363050485</v>
       </c>
       <c r="K6" t="n">
-        <v>1.351303106033559</v>
+        <v>-0.2067118886112105</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>

--- a/data/transformed_data.xlsx
+++ b/data/transformed_data.xlsx
@@ -1,37 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>age^2</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>sdmt</t>
+  </si>
+  <si>
+    <t>bvmt</t>
+  </si>
+  <si>
+    <t>cvlt</t>
+  </si>
+  <si>
+    <t>sdmt_z</t>
+  </si>
+  <si>
+    <t>bvmt_z</t>
+  </si>
+  <si>
+    <t>cvlt_z</t>
+  </si>
+  <si>
+    <t>sdmt_imp</t>
+  </si>
+  <si>
+    <t>bvmt_imp</t>
+  </si>
+  <si>
+    <t>cvlt_imp</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +93,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -421,307 +409,275 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>age</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>age^2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>sex</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>education</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>sdmt</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>bvmt</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>cvlt</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>sdmt_z</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>bvmt_z</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>cvlt_z</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>sdmt_imp</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>bvmt_imp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>cvlt_imp</t>
-        </is>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>52</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>2704</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>12</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>42</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>25</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>50</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>-0.9770609318996425</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>-0.1757966344432509</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>-0.9132452695465898</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>19</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>361</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>21</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>60</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>20</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>30</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>-2.45089605734767</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>-3.232008592910849</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>-5.194930382006427</v>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>32</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1024</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>17</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>85</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>35</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>70</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>1.974551971326164</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>1.135338345864661</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>-0.5694394858978932</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>76</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>5776</v>
       </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>12</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>75</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>60</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>2.891039426523297</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>-3.759040458288578</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>-0.0649767940021416</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>50</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>2500</v>
       </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>15</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>65</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>15</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>60</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.9559139784946242</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>-2.663802363050485</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>-0.2067118886112105</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>